--- a/Plans/Plan_1.xlsx
+++ b/Plans/Plan_1.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\huong_space\Plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\huong-space\Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Kế hoạch học tập</t>
   </si>
@@ -66,12 +67,39 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình c# cơ bản </t>
+  </si>
+  <si>
+    <t>ý tưởng</t>
+  </si>
+  <si>
+    <t>Sử dụng webform để học c#</t>
+  </si>
+  <si>
+    <t>Học webform cơ bản</t>
+  </si>
+  <si>
+    <t>Học phân tích thiết kế</t>
+  </si>
+  <si>
+    <t>Học sql cơ bản</t>
+  </si>
+  <si>
+    <t>Kết nối webform vào csdl</t>
+  </si>
+  <si>
+    <t>Tạo ứng dụng thêm sửa xóa</t>
+  </si>
+  <si>
+    <t>Nhập môn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -466,4 +494,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>